--- a/doc/任务计划.xlsx
+++ b/doc/任务计划.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>通用后台模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>2019/1/2，2019-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/1/4-20191-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中英翻译</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,11 +99,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -380,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -393,21 +401,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -422,10 +430,27 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
+    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
